--- a/data/snowballing/study_set_21.xlsx
+++ b/data/snowballing/study_set_21.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="897">
   <si>
     <t xml:space="preserve">record_id</t>
   </si>
@@ -1838,6 +1838,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1017/S1365100522000657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicated (in study_set_23)</t>
   </si>
   <si>
     <t xml:space="preserve">9ACV5ELW</t>
@@ -2793,7 +2796,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2802,7 +2805,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2812,6 +2815,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2838,11 +2845,11 @@
   </sheetPr>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8016,9 +8023,11 @@
         <v>0</v>
       </c>
       <c r="W66" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X66" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="Y66" s="1" t="s">
         <v>42</v>
       </c>
@@ -8040,13 +8049,13 @@
         <v>636</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>2022</v>
@@ -8055,13 +8064,13 @@
         <v>117</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N67" s="0" t="n">
         <v>1</v>
@@ -8076,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="S67" s="3" t="n">
         <v>45224</v>
@@ -8101,7 +8110,7 @@
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
       <c r="AF67" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG67" s="4" t="n">
         <v>1</v>
@@ -8112,13 +8121,13 @@
         <v>1829</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>2017</v>
@@ -8127,13 +8136,13 @@
         <v>164</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N68" s="0" t="n">
         <v>0</v>
@@ -8148,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="S68" s="3" t="n">
         <v>45215</v>
@@ -8160,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="W68" s="0" t="n">
         <v>0</v>
@@ -8177,19 +8186,19 @@
         <v>7430</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>3</v>
@@ -8201,13 +8210,13 @@
         <v>36</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N69" s="0" t="n">
         <v>1</v>
@@ -8222,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="S69" s="3" t="n">
         <v>45215</v>
@@ -8251,40 +8260,40 @@
         <v>7434</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>182</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N70" s="0" t="n">
         <v>1</v>
@@ -8299,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="S70" s="3" t="n">
         <v>45215</v>
@@ -8325,13 +8334,13 @@
         <v>9807</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>2010</v>
@@ -8343,22 +8352,22 @@
         <v>58</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N71" s="0" t="n">
         <v>1</v>
@@ -8373,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="S71" s="3" t="n">
         <v>45215</v>
@@ -8399,19 +8408,19 @@
         <v>7650</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>3</v>
@@ -8423,13 +8432,13 @@
         <v>36</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N72" s="0" t="n">
         <v>1</v>
@@ -8444,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="S72" s="3" t="n">
         <v>45215</v>
@@ -8473,19 +8482,19 @@
         <v>1000</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>6</v>
@@ -8497,13 +8506,13 @@
         <v>36</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N73" s="0" t="n">
         <v>1</v>
@@ -8518,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="S73" s="3" t="n">
         <v>45215</v>
@@ -8547,19 +8556,19 @@
         <v>3795</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>182</v>
@@ -8571,13 +8580,13 @@
         <v>36</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N74" s="0" t="n">
         <v>0</v>
@@ -8615,13 +8624,13 @@
         <v>852</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>2019</v>
@@ -8630,13 +8639,13 @@
         <v>36</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N75" s="0" t="n">
         <v>0</v>
@@ -8660,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="W75" s="0" t="n">
         <v>0</v>
@@ -8677,19 +8686,19 @@
         <v>3733</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E76" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>58</v>
@@ -8701,13 +8710,13 @@
         <v>36</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N76" s="0" t="n">
         <v>1</v>
@@ -8722,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="S76" s="3" t="n">
         <v>45215</v>
@@ -8738,7 +8747,7 @@
       </c>
       <c r="X76" s="1"/>
       <c r="Y76" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG76" s="0" t="n">
         <v>1</v>
@@ -8749,40 +8758,40 @@
         <v>3475</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>2004</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N77" s="0" t="n">
         <v>0</v>
@@ -8797,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="S77" s="3" t="n">
         <v>45215</v>
@@ -8823,37 +8832,37 @@
         <v>6697</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N78" s="0" t="n">
         <v>1</v>
@@ -8868,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="S78" s="3" t="n">
         <v>45215</v>
@@ -8882,11 +8891,11 @@
       <c r="W78" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X78" s="5" t="s">
+      <c r="X78" s="6" t="s">
         <v>137</v>
       </c>
       <c r="Y78" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG78" s="0" t="n">
         <v>1</v>
@@ -8897,19 +8906,19 @@
         <v>10186</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>1</v>
@@ -8921,13 +8930,13 @@
         <v>36</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N79" s="0" t="n">
         <v>1</v>
@@ -8942,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="S79" s="3" t="n">
         <v>45215</v>
@@ -8968,37 +8977,37 @@
         <v>178</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E80" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N80" s="0" t="n">
         <v>1</v>
@@ -9013,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="S80" s="3" t="n">
         <v>45215</v>
@@ -9031,7 +9040,7 @@
         <v>205</v>
       </c>
       <c r="Y80" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AC80" s="0" t="n">
         <v>1</v>
@@ -9045,19 +9054,19 @@
         <v>1814</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E81" s="1" t="n">
         <v>2013</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>68</v>
@@ -9069,13 +9078,13 @@
         <v>36</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N81" s="0" t="n">
         <v>1</v>
@@ -9090,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="S81" s="3" t="n">
         <v>45215</v>
@@ -9116,37 +9125,37 @@
         <v>1036</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>1999</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N82" s="0" t="n">
         <v>1</v>
@@ -9161,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="S82" s="3" t="n">
         <v>45215</v>
@@ -9179,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Y82" s="0" t="s">
         <v>42</v>
@@ -9190,13 +9199,13 @@
         <v>8842</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E83" s="1" t="n">
         <v>2014</v>
@@ -9208,22 +9217,22 @@
         <v>58</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="N83" s="0" t="n">
         <v>1</v>
@@ -9238,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="S83" s="3" t="n">
         <v>45215</v>
@@ -9264,19 +9273,19 @@
         <v>7687</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>2</v>
@@ -9288,10 +9297,10 @@
         <v>36</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N84" s="0" t="n">
         <v>1</v>
@@ -9306,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="S84" s="3" t="n">
         <v>45215</v>
@@ -9324,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Y84" s="0" t="s">
         <v>42</v>
@@ -9335,13 +9344,13 @@
         <v>9530</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E85" s="1" t="n">
         <v>1997</v>
@@ -9350,10 +9359,10 @@
         <v>117</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N85" s="0" t="n">
         <v>1</v>
@@ -9368,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="R85" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="S85" s="3" t="n">
         <v>45215</v>
@@ -9384,7 +9393,7 @@
       </c>
       <c r="X85" s="1"/>
       <c r="Y85" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG85" s="0" t="n">
         <v>1</v>
@@ -9395,13 +9404,13 @@
         <v>1133</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E86" s="1" t="n">
         <v>2008</v>
@@ -9410,13 +9419,13 @@
         <v>36</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N86" s="0" t="n">
         <v>0</v>
@@ -9440,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="W86" s="0" t="n">
         <v>0</v>
@@ -9457,40 +9466,40 @@
         <v>1739</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E87" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>50</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N87" s="0" t="n">
         <v>1</v>
@@ -9505,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="R87" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="S87" s="3" t="n">
         <v>45215</v>
@@ -9534,37 +9543,37 @@
         <v>3155</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E88" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N88" s="0" t="n">
         <v>1</v>
@@ -9579,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="R88" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="S88" s="3" t="n">
         <v>45215</v>
@@ -9595,7 +9604,7 @@
       </c>
       <c r="X88" s="1"/>
       <c r="Y88" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG88" s="0" t="n">
         <v>1</v>
@@ -9606,19 +9615,19 @@
         <v>902</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E89" s="1" t="n">
         <v>2016</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>457</v>
@@ -9627,13 +9636,13 @@
         <v>36</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N89" s="0" t="n">
         <v>1</v>
@@ -9648,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S89" s="3" t="n">
         <v>45215</v>
@@ -9663,10 +9672,10 @@
         <v>0</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Y89" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG89" s="0" t="n">
         <v>1</v>
@@ -9677,19 +9686,19 @@
         <v>10457</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E90" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>10</v>
@@ -9701,10 +9710,10 @@
         <v>36</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N90" s="0" t="n">
         <v>1</v>
@@ -9719,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="R90" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="S90" s="3" t="n">
         <v>45215</v>
@@ -9748,19 +9757,19 @@
         <v>7101</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E91" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>96</v>
@@ -9772,16 +9781,16 @@
         <v>36</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N91" s="0" t="n">
         <v>1</v>
@@ -9796,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="S91" s="3" t="n">
         <v>45215</v>
@@ -9822,19 +9831,19 @@
         <v>10101</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E92" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>107</v>
@@ -9843,13 +9852,13 @@
         <v>36</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N92" s="0" t="n">
         <v>1</v>
@@ -9864,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="R92" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="S92" s="3" t="n">
         <v>45215</v>
@@ -9890,19 +9899,19 @@
         <v>613</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E93" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>96</v>
@@ -9914,13 +9923,13 @@
         <v>36</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N93" s="0" t="n">
         <v>1</v>
@@ -9935,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="S93" s="3" t="n">
         <v>45215</v>
@@ -9953,7 +9962,7 @@
         <v>137</v>
       </c>
       <c r="Y93" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG93" s="0" t="n">
         <v>1</v>
@@ -9964,13 +9973,13 @@
         <v>955</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E94" s="1" t="n">
         <v>2013</v>
@@ -9979,7 +9988,7 @@
         <v>430</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>568</v>
@@ -9988,13 +9997,13 @@
         <v>36</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="N94" s="0" t="n">
         <v>1</v>
@@ -10009,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="S94" s="3" t="n">
         <v>45215</v>
@@ -10035,13 +10044,13 @@
         <v>2439</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E95" s="1" t="n">
         <v>2019</v>
@@ -10050,19 +10059,19 @@
         <v>430</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N95" s="0" t="n">
         <v>1</v>
@@ -10077,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S95" s="3" t="n">
         <v>45215</v>
@@ -10093,7 +10102,7 @@
       </c>
       <c r="X95" s="1"/>
       <c r="Y95" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG95" s="0" t="n">
         <v>1</v>
@@ -10104,13 +10113,13 @@
         <v>3161</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E96" s="1" t="n">
         <v>2020</v>
@@ -10119,19 +10128,19 @@
         <v>189</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N96" s="0" t="n">
         <v>1</v>
@@ -10146,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="S96" s="3" t="n">
         <v>45215</v>
@@ -10162,7 +10171,7 @@
       </c>
       <c r="X96" s="1"/>
       <c r="Y96" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AC96" s="0" t="n">
         <v>1</v>
@@ -10176,13 +10185,13 @@
         <v>2238</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E97" s="1" t="n">
         <v>2018</v>
@@ -10200,13 +10209,13 @@
         <v>36</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N97" s="0" t="n">
         <v>1</v>
@@ -10221,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="R97" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="S97" s="3" t="n">
         <v>45215</v>
@@ -10247,13 +10256,13 @@
         <v>9532</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1990</v>
@@ -10262,10 +10271,10 @@
         <v>117</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N98" s="0" t="n">
         <v>1</v>
@@ -10280,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="S98" s="3" t="n">
         <v>45215</v>
@@ -10309,13 +10318,13 @@
         <v>8201</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E99" s="1" t="n">
         <v>1983</v>
@@ -10324,31 +10333,31 @@
         <v>117</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M99" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="N99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" s="0" t="s">
         <v>875</v>
-      </c>
-      <c r="N99" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" s="0" t="s">
-        <v>874</v>
       </c>
       <c r="S99" s="3" t="n">
         <v>45215</v>
@@ -10374,40 +10383,40 @@
         <v>9508</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>2012</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N100" s="0" t="n">
         <v>0</v>
@@ -10431,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="W100" s="0" t="n">
         <v>0</v>
@@ -10448,40 +10457,40 @@
         <v>7717</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E101" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N101" s="0" t="n">
         <v>1</v>
@@ -10496,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="R101" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="S101" s="3" t="n">
         <v>45224</v>
